--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-29.01404761904764</v>
+        <v>-29.01404761904761</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-29.01404761904766</v>
+        <v>-29.01404761904762</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5640821256038357</v>
+        <v>-0.5640821256038713</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-29.36904761904763</v>
+        <v>-29.36904761904762</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-28.95307798481716</v>
+        <v>-28.95307798481711</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4159696342304784</v>
+        <v>-0.4159696342305068</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.104</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-1.118764665286392</v>
+        <v>-1.11876466528641</v>
       </c>
     </row>
     <row r="4">
@@ -522,20 +522,20 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-29.45619047619049</v>
+        <v>-29.45619047619048</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-28.89210835058665</v>
+        <v>-28.89210835058661</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5640821256038357</v>
+        <v>-0.5640821256038713</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>-0.188</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.7881746031745891</v>
+        <v>-0.7881746031745962</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-29.37380952380954</v>
+        <v>-29.37380952380953</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-28.83113871635615</v>
+        <v>-28.8311387163561</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5426708074533906</v>
+        <v>-0.5426708074534261</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -560,13 +560,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-29.23571428571431</v>
+        <v>-29.23571428571429</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-28.77016908212564</v>
+        <v>-28.7701690821256</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4655452035886611</v>
+        <v>-0.465545203588686</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -577,13 +577,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-29.14523809523811</v>
+        <v>-29.1452380952381</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-28.70919944789514</v>
+        <v>-28.7091994478951</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.436038647342972</v>
+        <v>-0.4360386473430005</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -594,13 +594,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-29.06714285714288</v>
+        <v>-29.06714285714286</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-28.64822981366464</v>
+        <v>-28.64822981366459</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4189130434782378</v>
+        <v>-0.4189130434782697</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -611,13 +611,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-29.00190476190478</v>
+        <v>-29.00190476190477</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-28.58726017943413</v>
+        <v>-28.58726017943409</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4146445824706504</v>
+        <v>-0.4146445824706788</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -628,13 +628,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-28.94809523809526</v>
+        <v>-28.94809523809524</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-28.52629054520363</v>
+        <v>-28.52629054520359</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4218046928916266</v>
+        <v>-0.421804692891655</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -645,13 +645,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-28.90285714285716</v>
+        <v>-28.90285714285715</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-28.46532091097313</v>
+        <v>-28.46532091097308</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4375362318840352</v>
+        <v>-0.4375362318840637</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -662,13 +662,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-28.86666666666669</v>
+        <v>-28.86666666666667</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-28.40435127674262</v>
+        <v>-28.40435127674258</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4623153899240684</v>
+        <v>-0.4623153899240933</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -679,13 +679,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-28.84000000000002</v>
+        <v>-28.84</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-28.34338164251212</v>
+        <v>-28.34338164251207</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4966183574879004</v>
+        <v>-0.4966183574879288</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -696,13 +696,13 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-28.82619047619049</v>
+        <v>-28.82619047619048</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-28.28241200828161</v>
+        <v>-28.28241200828157</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5437784679088757</v>
+        <v>-0.5437784679089042</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -713,13 +713,13 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-28.81666666666668</v>
+        <v>-28.81666666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-28.22144237405111</v>
+        <v>-28.22144237405107</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5952242926155726</v>
+        <v>-0.5952242926155975</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -730,13 +730,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-28.81523809523811</v>
+        <v>-28.8152380952381</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-28.16047273982061</v>
+        <v>-28.16047273982057</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6547653554175064</v>
+        <v>-0.6547653554175312</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -747,13 +747,13 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-28.81666666666668</v>
+        <v>-28.81666666666667</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-28.0995031055901</v>
+        <v>-28.09950310559006</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.7171635610765819</v>
+        <v>-0.7171635610766067</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -764,13 +764,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-28.81809523809525</v>
+        <v>-28.81809523809524</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-28.0385334713596</v>
+        <v>-28.03853347135956</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.7795617667356574</v>
+        <v>-0.7795617667356822</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -781,13 +781,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-28.81904761904763</v>
+        <v>-28.81904761904762</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-27.97756383712909</v>
+        <v>-27.97756383712905</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.8414837819185408</v>
+        <v>-0.8414837819185657</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -798,13 +798,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-28.81904761904763</v>
+        <v>-28.81904761904762</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-27.91659420289859</v>
+        <v>-27.91659420289855</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.9024534161490436</v>
+        <v>-0.9024534161490685</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -815,13 +815,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-28.81190476190478</v>
+        <v>-28.81190476190476</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-27.85562456866808</v>
+        <v>-27.85562456866805</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.9562801932366938</v>
+        <v>-0.9562801932367151</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -832,13 +832,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-28.79952380952383</v>
+        <v>-28.79952380952381</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-27.79465493443758</v>
+        <v>-27.79465493443755</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.004868875086245</v>
+        <v>-1.004868875086263</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-28.77809523809525</v>
+        <v>-28.77809523809524</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-27.73368530020708</v>
+        <v>-27.73368530020704</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.044409937888176</v>
+        <v>-1.044409937888201</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -866,13 +866,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-28.75047619047621</v>
+        <v>-28.75047619047619</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-27.67271566597657</v>
+        <v>-27.67271566597654</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.077760524499634</v>
+        <v>-1.077760524499656</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -883,13 +883,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-28.71333333333335</v>
+        <v>-28.71333333333334</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-27.61174603174607</v>
+        <v>-27.61174603174603</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.101587301587283</v>
+        <v>-1.101587301587305</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -900,13 +900,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-28.66666666666669</v>
+        <v>-28.66666666666667</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-27.55077639751556</v>
+        <v>-27.55077639751553</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.115890269151123</v>
+        <v>-1.115890269151141</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -917,13 +917,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-28.60857142857145</v>
+        <v>-28.60857142857143</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-27.48980676328506</v>
+        <v>-27.48980676328502</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.118764665286392</v>
+        <v>-1.11876466528641</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -934,13 +934,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-28.54047619047621</v>
+        <v>-28.54047619047619</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-27.42883712905456</v>
+        <v>-27.42883712905452</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.111639061421648</v>
+        <v>-1.11163906142167</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -951,13 +951,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-28.46190476190478</v>
+        <v>-28.46190476190477</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-27.36786749482405</v>
+        <v>-27.36786749482402</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.094037267080726</v>
+        <v>-1.094037267080747</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -968,13 +968,13 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-28.37904761904764</v>
+        <v>-28.37904761904762</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-27.30689786059355</v>
+        <v>-27.30689786059352</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.072149758454092</v>
+        <v>-1.072149758454106</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -985,13 +985,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-28.29000000000002</v>
+        <v>-28.29</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-27.24592822636304</v>
+        <v>-27.24592822636301</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.044071773636972</v>
+        <v>-1.044071773636986</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1002,13 +1002,13 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-28.19857142857145</v>
+        <v>-28.19857142857143</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-27.18495859213254</v>
+        <v>-27.18495859213251</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.013612836438909</v>
+        <v>-1.013612836438924</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1019,13 +1019,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-28.10285714285716</v>
+        <v>-28.10285714285715</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-27.12398895790204</v>
+        <v>-27.123988957902</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.9788681849551253</v>
+        <v>-0.9788681849551431</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1036,13 +1036,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-28.00714285714287</v>
+        <v>-28.00714285714286</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-27.06301932367153</v>
+        <v>-27.0630193236715</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.9441235334713411</v>
+        <v>-0.9441235334713589</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1053,13 +1053,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-27.91238095238097</v>
+        <v>-27.91238095238096</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-27.00204968944103</v>
+        <v>-27.002049689441</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.9103312629399447</v>
+        <v>-0.9103312629399589</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1070,13 +1070,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-27.81952380952383</v>
+        <v>-27.81952380952382</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-26.94108005521052</v>
+        <v>-26.94108005521049</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.8784437543133059</v>
+        <v>-0.8784437543133237</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1087,13 +1087,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-27.72761904761906</v>
+        <v>-27.72761904761905</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-26.88011042098002</v>
+        <v>-26.88011042097999</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.8475086266390441</v>
+        <v>-0.8475086266390619</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1104,13 +1104,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-27.64333333333335</v>
+        <v>-27.64333333333334</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-26.81914078674951</v>
+        <v>-26.81914078674949</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.8241925465838378</v>
+        <v>-0.824192546583852</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1121,13 +1121,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-27.5609523809524</v>
+        <v>-27.56095238095238</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-26.75817115251901</v>
+        <v>-26.75817115251898</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.8027812284333855</v>
+        <v>-0.8027812284333997</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1138,13 +1138,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-27.48476190476192</v>
+        <v>-27.48476190476191</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-26.69720151828851</v>
+        <v>-26.69720151828848</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.7875603864734124</v>
+        <v>-0.7875603864734302</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1155,13 +1155,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-27.41523809523812</v>
+        <v>-27.4152380952381</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-26.636231884058</v>
+        <v>-26.63623188405797</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.7790062111801141</v>
+        <v>-0.7790062111801248</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1172,13 +1172,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-27.35000000000002</v>
+        <v>-27.35</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-26.5752622498275</v>
+        <v>-26.57526224982747</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.7747377501725197</v>
+        <v>-0.7747377501725303</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1189,13 +1189,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-27.28809523809526</v>
+        <v>-27.28809523809524</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-26.514292615597</v>
+        <v>-26.51429261559697</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.773802622498259</v>
+        <v>-0.7738026224982733</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1206,13 +1206,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-27.22904761904763</v>
+        <v>-27.22904761904762</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-26.45332298136649</v>
+        <v>-26.45332298136647</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.7757246376811437</v>
+        <v>-0.7757246376811544</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1223,13 +1223,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-27.17047619047621</v>
+        <v>-27.17047619047619</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-26.39235334713599</v>
+        <v>-26.39235334713596</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.7781228433402205</v>
+        <v>-0.7781228433402312</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1240,13 +1240,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-27.11428571428574</v>
+        <v>-27.11428571428571</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-26.33138371290548</v>
+        <v>-26.33138371290546</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.7829020013802506</v>
+        <v>-0.7829020013802577</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1257,13 +1257,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-27.05714285714287</v>
+        <v>-27.05714285714286</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-26.27041407867498</v>
+        <v>-26.27041407867495</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.7867287784678965</v>
+        <v>-0.7867287784679036</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1274,13 +1274,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-26.99761904761906</v>
+        <v>-26.99761904761905</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-26.20944444444448</v>
+        <v>-26.20944444444445</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.7881746031745891</v>
+        <v>-0.7881746031745962</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1291,13 +1291,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-26.93190476190478</v>
+        <v>-26.93190476190476</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-26.14847481021397</v>
+        <v>-26.14847481021395</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.7834299516908096</v>
+        <v>-0.7834299516908132</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1308,13 +1308,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-26.85809523809526</v>
+        <v>-26.85809523809524</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-26.08750517598347</v>
+        <v>-26.08750517598344</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.7705900621117934</v>
+        <v>-0.7705900621117969</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1325,13 +1325,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-26.78238095238098</v>
+        <v>-26.78238095238096</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-26.02653554175296</v>
+        <v>-26.02653554175294</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.7558454106280124</v>
+        <v>-0.7558454106280195</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1342,13 +1342,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-26.70190476190478</v>
+        <v>-26.70190476190476</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-25.96556590752246</v>
+        <v>-25.96556590752244</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.7363388543823213</v>
+        <v>-0.7363388543823284</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1359,13 +1359,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-26.61523809523811</v>
+        <v>-26.6152380952381</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-25.90459627329195</v>
+        <v>-25.90459627329193</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.7106418219461581</v>
+        <v>-0.7106418219461652</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1376,13 +1376,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-26.52142857142859</v>
+        <v>-26.52142857142858</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-25.84362663906145</v>
+        <v>-25.84362663906143</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6778019323671423</v>
+        <v>-0.6778019323671458</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1393,13 +1393,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-26.41904761904764</v>
+        <v>-26.41904761904762</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-25.78265700483095</v>
+        <v>-25.78265700483092</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6363906142166904</v>
+        <v>-0.6363906142167011</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1410,13 +1410,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-26.31142857142859</v>
+        <v>-26.31142857142858</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-25.72168737060044</v>
+        <v>-25.72168737060042</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.5897412008281506</v>
+        <v>-0.5897412008281577</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1427,13 +1427,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-26.20142857142859</v>
+        <v>-26.20142857142858</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-25.66071773636994</v>
+        <v>-25.66071773636992</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.5407108350586505</v>
+        <v>-0.5407108350586576</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1444,13 +1444,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-26.08714285714287</v>
+        <v>-26.08714285714286</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-25.59974810213944</v>
+        <v>-25.59974810213942</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.4873947550034359</v>
+        <v>-0.487394755003443</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1461,13 +1461,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-25.96952380952383</v>
+        <v>-25.96952380952381</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-25.53877846790893</v>
+        <v>-25.53877846790891</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.4307453416148981</v>
+        <v>-0.4307453416149016</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1478,13 +1478,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-25.85047619047621</v>
+        <v>-25.85047619047619</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-25.47780883367843</v>
+        <v>-25.47780883367841</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.3726673567977805</v>
+        <v>-0.3726673567977876</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1495,13 +1495,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-25.73380952380954</v>
+        <v>-25.73380952380953</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-25.41683919944792</v>
+        <v>-25.4168391994479</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.3169703243616162</v>
+        <v>-0.3169703243616233</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1512,13 +1512,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-25.61809523809526</v>
+        <v>-25.61809523809524</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-25.35586956521742</v>
+        <v>-25.3558695652174</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.2622256728778396</v>
+        <v>-0.2622256728778432</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1529,13 +1529,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-25.50523809523811</v>
+        <v>-25.5052380952381</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-25.29489993098692</v>
+        <v>-25.2948999309869</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.2103381642511977</v>
+        <v>-0.2103381642512012</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1546,13 +1546,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-25.39523809523811</v>
+        <v>-25.3952380952381</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-25.23393029675641</v>
+        <v>-25.23393029675639</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1613077984816975</v>
+        <v>-0.1613077984817082</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1563,13 +1563,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-25.28952380952383</v>
+        <v>-25.28952380952381</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-25.17296066252591</v>
+        <v>-25.17296066252589</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1165631469979225</v>
+        <v>-0.116563146997926</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1580,13 +1580,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-25.18904761904763</v>
+        <v>-25.18904761904762</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-25.1119910282954</v>
+        <v>-25.11199102829539</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.07705659075223181</v>
+        <v>-0.07705659075223537</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1597,10 +1597,10 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-25.09857142857145</v>
+        <v>-25.09857142857143</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-25.0510213940649</v>
+        <v>-25.05102139406488</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>-0.04755003450654982</v>
@@ -1614,10 +1614,10 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-25.01380952380954</v>
+        <v>-25.01380952380953</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-24.99005175983439</v>
+        <v>-24.99005175983438</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>-0.02375776397514784</v>
@@ -1631,13 +1631,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-24.93857142857144</v>
+        <v>-24.93857142857143</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-24.92908212560389</v>
+        <v>-24.92908212560387</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.009489302967551794</v>
+        <v>-0.009489302967555346</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1648,13 +1648,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-24.87000000000002</v>
+        <v>-24.87</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-24.86811249137339</v>
+        <v>-24.86811249137337</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.001887508626630563</v>
+        <v>-0.001887508626634116</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1665,13 +1665,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
+        <v>-24.80714285714286</v>
+      </c>
+      <c r="C71" s="2" t="n">
         <v>-24.80714285714287</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>-24.80714285714288</v>
-      </c>
       <c r="D71" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1682,10 +1682,10 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-24.75190476190478</v>
+        <v>-24.75190476190477</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-24.75190476190478</v>
+        <v>-24.75190476190477</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1699,10 +1699,10 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-24.70380952380954</v>
+        <v>-24.70380952380953</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-24.70380952380954</v>
+        <v>-24.70380952380953</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-24.66428571428573</v>
+        <v>-24.66428571428572</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-24.66428571428573</v>
+        <v>-24.66428571428572</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-24.63333333333335</v>
+        <v>-24.63333333333333</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-24.63333333333335</v>
+        <v>-24.63333333333333</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-24.60857142857144</v>
+        <v>-24.60857142857143</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-24.60857142857144</v>
+        <v>-24.60857142857143</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-24.58952380952383</v>
+        <v>-24.58952380952381</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-24.58952380952383</v>
+        <v>-24.58952380952381</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-24.58285714285716</v>
+        <v>-24.58285714285715</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-24.58285714285716</v>
+        <v>-24.58285714285715</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-24.58000000000002</v>
+        <v>-24.58000000000001</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-24.58000000000002</v>
+        <v>-24.58000000000001</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-24.58380952380954</v>
+        <v>-24.58380952380953</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-24.58380952380954</v>
+        <v>-24.58380952380953</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-24.59476190476192</v>
+        <v>-24.59476190476191</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-24.59476190476192</v>
+        <v>-24.59476190476191</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-24.61285714285716</v>
+        <v>-24.61285714285714</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-24.61285714285716</v>
+        <v>-24.61285714285714</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1869,10 +1869,10 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-24.63666666666668</v>
+        <v>-24.63666666666667</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-24.63666666666668</v>
+        <v>-24.63666666666667</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-24.66761904761906</v>
+        <v>-24.66761904761905</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-24.66761904761906</v>
+        <v>-24.66761904761905</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-24.70142857142859</v>
+        <v>-24.70142857142857</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-24.70142857142859</v>
+        <v>-24.70142857142857</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-24.74285714285716</v>
+        <v>-24.74285714285715</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-24.74285714285716</v>
+        <v>-24.74285714285715</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-24.7909523809524</v>
+        <v>-24.79095238095238</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-24.7909523809524</v>
+        <v>-24.79095238095238</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-24.84333333333335</v>
+        <v>-24.84333333333333</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-24.84333333333335</v>
+        <v>-24.84333333333333</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-24.90238095238097</v>
+        <v>-24.90238095238096</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-24.90238095238097</v>
+        <v>-24.90238095238096</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-24.9657142857143</v>
+        <v>-24.96571428571429</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-24.9657142857143</v>
+        <v>-24.96571428571429</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-25.03476190476192</v>
+        <v>-25.03476190476191</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-25.03476190476192</v>
+        <v>-25.03476190476191</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-25.10952380952383</v>
+        <v>-25.10952380952381</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-25.10952380952383</v>
+        <v>-25.10952380952381</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-25.1904761904762</v>
+        <v>-25.19047619047619</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-25.1904761904762</v>
+        <v>-25.19047619047619</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-25.27428571428573</v>
+        <v>-25.27428571428572</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-25.27428571428573</v>
+        <v>-25.27428571428572</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-25.36476190476192</v>
+        <v>-25.36476190476191</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-25.36476190476192</v>
+        <v>-25.36476190476191</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-25.4609523809524</v>
+        <v>-25.46095238095238</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-25.4609523809524</v>
+        <v>-25.46095238095238</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2107,10 +2107,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-25.56333333333335</v>
+        <v>-25.56333333333333</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-25.56333333333335</v>
+        <v>-25.56333333333333</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-25.66761904761906</v>
+        <v>-25.66761904761905</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-25.66761904761906</v>
+        <v>-25.66761904761905</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-25.77857142857145</v>
+        <v>-25.77857142857143</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-25.77857142857145</v>
+        <v>-25.77857142857143</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-25.89285714285716</v>
+        <v>-25.89285714285715</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-25.89285714285716</v>
+        <v>-25.89285714285715</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-26.00857142857144</v>
+        <v>-26.00857142857143</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-26.00857142857144</v>
+        <v>-26.00857142857143</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-26.12761904761907</v>
+        <v>-26.12761904761905</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-26.12761904761907</v>
+        <v>-26.12761904761905</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-26.25333333333335</v>
+        <v>-26.25333333333334</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-26.25333333333335</v>
+        <v>-26.25333333333334</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>-0.412</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-26.38190476190478</v>
+        <v>-26.38190476190476</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-26.38190476190478</v>
+        <v>-26.38190476190476</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-26.51428571428573</v>
+        <v>-26.51428571428572</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-26.51428571428573</v>
+        <v>-26.51428571428572</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-26.65285714285717</v>
+        <v>-26.65285714285715</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-26.65285714285717</v>
+        <v>-26.65285714285715</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-26.79285714285716</v>
+        <v>-26.79285714285714</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-26.79285714285716</v>
+        <v>-26.79285714285714</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -2294,10 +2294,10 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-26.93523809523811</v>
+        <v>-26.9352380952381</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-26.93523809523811</v>
+        <v>-26.9352380952381</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-27.08142857142859</v>
+        <v>-27.08142857142857</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-27.08142857142859</v>
+        <v>-27.08142857142857</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-27.23095238095238</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-27.23095238095238</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-27.38142857142859</v>
+        <v>-27.38142857142858</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-27.38142857142859</v>
+        <v>-27.38142857142858</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-27.53619047619049</v>
+        <v>-27.53619047619048</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-27.53619047619049</v>
+        <v>-27.53619047619048</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-27.69333333333335</v>
+        <v>-27.69333333333334</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-27.69333333333335</v>
+        <v>-27.69333333333334</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-27.84904761904762</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-27.84904761904762</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-28.00523809523811</v>
+        <v>-28.0052380952381</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-28.00523809523811</v>
+        <v>-28.0052380952381</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>-0.46</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-28.16714285714288</v>
+        <v>-28.16714285714286</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-28.16714285714288</v>
+        <v>-28.16714285714286</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>-0.464</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-28.33047619047621</v>
+        <v>-28.33047619047619</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>-28.33047619047621</v>
+        <v>-28.33047619047619</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-28.49523809523811</v>
+        <v>-28.4952380952381</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-28.49523809523811</v>
+        <v>-28.4952380952381</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-28.65952380952383</v>
+        <v>-28.65952380952381</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-28.65952380952383</v>
+        <v>-28.65952380952381</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-28.82142857142859</v>
+        <v>-28.82142857142857</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-28.82142857142859</v>
+        <v>-28.82142857142857</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-28.98333333333335</v>
+        <v>-28.98333333333333</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-28.98333333333335</v>
+        <v>-28.98333333333333</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-29.14666666666669</v>
+        <v>-29.14666666666667</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-29.14666666666669</v>
+        <v>-29.14666666666667</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-29.30952380952383</v>
+        <v>-29.30952380952381</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>-29.30952380952383</v>
+        <v>-29.30952380952381</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-29.47071428571432</v>
+        <v>-29.47071428571431</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-29.47071428571432</v>
+        <v>-29.47071428571431</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>-0.496</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-29.63071428571432</v>
+        <v>-29.63071428571433</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>-29.63071428571432</v>
+        <v>-29.63071428571433</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>-0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>-29.78952380952386</v>
+        <v>-29.78952380952388</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>-29.78952380952386</v>
+        <v>-29.78952380952388</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5640821256038357</v>
+        <v>-0.5640821256038713</v>
       </c>
     </row>
     <row r="3">
@@ -2660,7 +2660,7 @@
         <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-1.118764665286392</v>
+        <v>-1.11876466528641</v>
       </c>
     </row>
     <row r="4">
@@ -2668,7 +2668,7 @@
         <v>-0.188</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.7881746031745891</v>
+        <v>-0.7881746031745962</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,79 +477,75 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-29.01404761904761</v>
+        <v>-28.67023809523814</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-29.01404761904762</v>
+        <v>-28.67023809523813</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>-7.105427357601002e-15</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.116</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5640821256038713</v>
+        <v>-0.05726480836235481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-29.36904761904762</v>
+        <v>-28.60952380952384</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-28.95307798481711</v>
+        <v>-28.58312427409992</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4159696342305068</v>
+        <v>-0.02639953542391993</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.208</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-1.11876466528641</v>
+        <v>-0.2970731707317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-29.45619047619048</v>
+        <v>-28.53952380952383</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-28.89210835058661</v>
+        <v>-28.49601045296171</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5640821256038713</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.188</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-0.7881746031745962</v>
-      </c>
+        <v>-0.04351335656212285</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-29.37380952380953</v>
+        <v>-28.46190476190478</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-28.8311387163561</v>
+        <v>-28.4088966318235</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5426708074534261</v>
+        <v>-0.05300813008128102</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -557,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-29.23571428571429</v>
+        <v>-28.37904761904764</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-28.7701690821256</v>
+        <v>-28.32178281068528</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.465545203588686</v>
+        <v>-0.05726480836235481</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -574,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-29.1452380952381</v>
+        <v>-28.29000000000002</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-28.7091994478951</v>
+        <v>-28.23466898954707</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4360386473430005</v>
+        <v>-0.05533101045294231</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -591,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-29.06714285714286</v>
+        <v>-28.19857142857144</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-28.64822981366459</v>
+        <v>-28.14755516840886</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4189130434782697</v>
+        <v>-0.05101626016258365</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -608,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-29.00190476190477</v>
+        <v>-28.10285714285716</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-28.58726017943409</v>
+        <v>-28.06044134727065</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4146445824706788</v>
+        <v>-0.04241579558651409</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -625,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-28.94809523809524</v>
+        <v>-28.00714285714288</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-28.52629054520359</v>
+        <v>-27.97332752613244</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.421804692891655</v>
+        <v>-0.03381533101044099</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -642,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-28.90285714285715</v>
+        <v>-27.91238095238097</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-28.46532091097308</v>
+        <v>-27.88621370499423</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4375362318840637</v>
+        <v>-0.02616724738674492</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -659,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-28.86666666666667</v>
+        <v>-27.81952380952383</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-28.40435127674258</v>
+        <v>-27.79909988385601</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4623153899240933</v>
+        <v>-0.02042392566781714</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -676,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-28.84</v>
+        <v>-27.72761904761906</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-28.34338164251207</v>
+        <v>-27.7119860627178</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4966183574879288</v>
+        <v>-0.01563298490126286</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -693,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-28.82619047619048</v>
+        <v>-27.64333333333335</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-28.28241200828157</v>
+        <v>-27.62487224157959</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5437784679089042</v>
+        <v>-0.01846109175376398</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -710,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-28.81666666666667</v>
+        <v>-27.56095238095239</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-28.22144237405107</v>
+        <v>-27.53775842044138</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.5952242926155975</v>
+        <v>-0.02319396051101563</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -727,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-28.8152380952381</v>
+        <v>-27.48476190476192</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-28.16047273982057</v>
+        <v>-27.45064459930316</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6547653554175312</v>
+        <v>-0.03411730545875713</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -744,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-28.81666666666667</v>
+        <v>-27.41523809523812</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-28.09950310559006</v>
+        <v>-27.36353077816495</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.7171635610766067</v>
+        <v>-0.05170731707316278</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -761,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-28.81809523809524</v>
+        <v>-27.35000000000002</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-28.03853347135956</v>
+        <v>-27.27641695702674</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.7795617667356822</v>
+        <v>-0.07358304297327933</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -778,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-28.81904761904762</v>
+        <v>-27.28809523809526</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-27.97756383712905</v>
+        <v>-27.18930313588853</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.8414837819185657</v>
+        <v>-0.09879210220672618</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -795,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-28.81904761904762</v>
+        <v>-27.22904761904763</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-27.91659420289855</v>
+        <v>-27.10218931475032</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.9024534161490685</v>
+        <v>-0.1268583042973148</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -812,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-28.81190476190476</v>
+        <v>-27.17047619047621</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-27.85562456866805</v>
+        <v>-27.01507549361211</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.9562801932367151</v>
+        <v>-0.1554006968641026</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -829,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-28.79952380952381</v>
+        <v>-27.11428571428573</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-27.79465493443755</v>
+        <v>-26.9279616724739</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.004868875086263</v>
+        <v>-0.186324041811833</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -846,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-28.77809523809524</v>
+        <v>-27.05714285714287</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-27.73368530020704</v>
+        <v>-26.84084785133568</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.044409937888201</v>
+        <v>-0.2162950058071935</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -863,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-28.75047619047619</v>
+        <v>-26.99761904761906</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-27.67271566597654</v>
+        <v>-26.75373403019747</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.077760524499656</v>
+        <v>-0.2438850174215901</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -880,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-28.71333333333334</v>
+        <v>-26.93190476190478</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-27.61174603174603</v>
+        <v>-26.66662020905926</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.101587301587305</v>
+        <v>-0.2652845528455217</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -897,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-28.66666666666667</v>
+        <v>-26.85809523809526</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-27.55077639751553</v>
+        <v>-26.57950638792105</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.115890269151141</v>
+        <v>-0.2785888501742093</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -914,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-28.60857142857143</v>
+        <v>-26.78238095238097</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-27.48980676328502</v>
+        <v>-26.49239256678283</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.11876466528641</v>
+        <v>-0.2899883855981358</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -931,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-28.54047619047619</v>
+        <v>-26.70190476190478</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-27.42883712905452</v>
+        <v>-26.40527874564462</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.11163906142167</v>
+        <v>-0.2966260162601557</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -948,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-28.46190476190477</v>
+        <v>-26.61523809523811</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-27.36786749482402</v>
+        <v>-26.31816492450641</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.094037267080747</v>
+        <v>-0.2970731707317</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -965,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-28.37904761904762</v>
+        <v>-26.52142857142859</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-27.30689786059352</v>
+        <v>-26.2310511033682</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.072149758454106</v>
+        <v>-0.2903774680603917</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -982,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-28.29</v>
+        <v>-26.41904761904764</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-27.24592822636301</v>
+        <v>-26.14393728222998</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.044071773636986</v>
+        <v>-0.2751103368176508</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -999,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-28.19857142857143</v>
+        <v>-26.31142857142859</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-27.18495859213251</v>
+        <v>-26.05682346109177</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.013612836438924</v>
+        <v>-0.254605110336815</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1016,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-28.10285714285715</v>
+        <v>-26.20142857142859</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-27.123988957902</v>
+        <v>-25.96970963995356</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.9788681849551431</v>
+        <v>-0.2317189314750223</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1033,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-28.00714285714286</v>
+        <v>-26.08714285714287</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-27.0630193236715</v>
+        <v>-25.88259581881535</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.9441235334713589</v>
+        <v>-0.2045470383275223</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1050,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-27.91238095238096</v>
+        <v>-25.96952380952382</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-27.002049689441</v>
+        <v>-25.79548199767714</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.9103312629399589</v>
+        <v>-0.1740418118466849</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1067,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-27.81952380952382</v>
+        <v>-25.85047619047621</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-26.94108005521049</v>
+        <v>-25.70836817653893</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.8784437543133237</v>
+        <v>-0.1421080139372819</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1084,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-27.72761904761905</v>
+        <v>-25.73380952380954</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-26.88011042097999</v>
+        <v>-25.62125435540072</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.8475086266390619</v>
+        <v>-0.1125551684088251</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1101,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-27.64333333333334</v>
+        <v>-25.61809523809525</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-26.81914078674949</v>
+        <v>-25.53414053426251</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.824192546583852</v>
+        <v>-0.08395470383274883</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1118,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-27.56095238095238</v>
+        <v>-25.50523809523811</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-26.75817115251898</v>
+        <v>-25.44702671312429</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.8027812284333997</v>
+        <v>-0.05821138211382149</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1135,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-27.48476190476191</v>
+        <v>-25.39523809523811</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-26.69720151828848</v>
+        <v>-25.35991289198608</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.7875603864734302</v>
+        <v>-0.03532520325203592</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1152,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-27.4152380952381</v>
+        <v>-25.28952380952383</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-26.63623188405797</v>
+        <v>-25.27279907084787</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.7790062111801248</v>
+        <v>-0.01672473867596125</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1169,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-27.35</v>
+        <v>-25.18904761904763</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-26.57526224982747</v>
+        <v>-25.18568524970966</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.7747377501725303</v>
+        <v>-0.003362369337978066</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1186,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-27.28809523809524</v>
+        <v>-25.09857142857145</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-26.51429261559697</v>
+        <v>-25.09857142857144</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.7738026224982733</v>
+        <v>-3.552713678800501e-15</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1203,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-27.22904761904762</v>
+        <v>-25.01380952380954</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-26.45332298136647</v>
+        <v>-25.01380952380954</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.7757246376811544</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1220,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-27.17047619047619</v>
+        <v>-24.93857142857144</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-26.39235334713596</v>
+        <v>-24.93857142857144</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.7781228433402312</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1237,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-27.11428571428571</v>
+        <v>-24.87000000000002</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-26.33138371290546</v>
+        <v>-24.87000000000002</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.7829020013802577</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1254,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-27.05714285714286</v>
+        <v>-24.80714285714287</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-26.27041407867495</v>
+        <v>-24.80714285714287</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.7867287784679036</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1271,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-26.99761904761905</v>
+        <v>-24.75190476190478</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-26.20944444444445</v>
+        <v>-24.75190476190478</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.7881746031745962</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1288,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-26.93190476190476</v>
+        <v>-24.70380952380954</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-26.14847481021395</v>
+        <v>-24.70380952380954</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.7834299516908132</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1305,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-26.85809523809524</v>
+        <v>-24.66428571428573</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-26.08750517598344</v>
+        <v>-24.66428571428573</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.7705900621117969</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1322,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-26.78238095238096</v>
+        <v>-24.63333333333335</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-26.02653554175294</v>
+        <v>-24.63333333333335</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.7558454106280195</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1339,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-26.70190476190476</v>
+        <v>-24.60857142857144</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-25.96556590752244</v>
+        <v>-24.60857142857144</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.7363388543823284</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1356,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-26.6152380952381</v>
+        <v>-24.58952380952383</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-25.90459627329193</v>
+        <v>-24.58952380952383</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.7106418219461652</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1373,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-26.52142857142858</v>
+        <v>-24.58285714285716</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-25.84362663906143</v>
+        <v>-24.58285714285716</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6778019323671458</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1390,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-26.41904761904762</v>
+        <v>-24.58000000000001</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-25.78265700483092</v>
+        <v>-24.58000000000001</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6363906142167011</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1407,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-26.31142857142858</v>
+        <v>-24.58380952380954</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-25.72168737060042</v>
+        <v>-24.58380952380954</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.5897412008281577</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1424,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-26.20142857142858</v>
+        <v>-24.59476190476192</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-25.66071773636992</v>
+        <v>-24.59476190476192</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.5407108350586576</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1441,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-26.08714285714286</v>
+        <v>-24.61285714285716</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-25.59974810213942</v>
+        <v>-24.61285714285716</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.487394755003443</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1458,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-25.96952380952381</v>
+        <v>-24.63666666666668</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-25.53877846790891</v>
+        <v>-24.63666666666668</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.4307453416149016</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1475,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-25.85047619047619</v>
+        <v>-24.66761904761906</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-25.47780883367841</v>
+        <v>-24.66761904761906</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.3726673567977876</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1492,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-25.73380952380953</v>
+        <v>-24.70142857142859</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-25.4168391994479</v>
+        <v>-24.70142857142859</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.3169703243616233</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1509,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-25.61809523809524</v>
+        <v>-24.74285714285716</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-25.3558695652174</v>
+        <v>-24.74285714285716</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.2622256728778432</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1526,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-25.5052380952381</v>
+        <v>-24.7909523809524</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-25.2948999309869</v>
+        <v>-24.7909523809524</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.2103381642512012</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1543,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-25.3952380952381</v>
+        <v>-24.84333333333335</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-25.23393029675639</v>
+        <v>-24.84333333333335</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1613077984817082</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1560,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-25.28952380952381</v>
+        <v>-24.90238095238097</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-25.17296066252589</v>
+        <v>-24.90238095238097</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.116563146997926</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1577,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-25.18904761904762</v>
+        <v>-24.9657142857143</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-25.11199102829539</v>
+        <v>-24.9657142857143</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.07705659075223537</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1594,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-25.09857142857143</v>
+        <v>-25.03476190476192</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-25.05102139406488</v>
+        <v>-25.03476190476192</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.04755003450654982</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1611,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-25.01380952380953</v>
+        <v>-25.10952380952383</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-24.99005175983438</v>
+        <v>-25.10952380952383</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.02375776397514784</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1628,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-24.93857142857143</v>
+        <v>-25.1904761904762</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-24.92908212560387</v>
+        <v>-25.1904761904762</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.009489302967555346</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1645,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-24.87</v>
+        <v>-25.27428571428573</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-24.86811249137337</v>
+        <v>-25.27428571428573</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.001887508626634116</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1662,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-24.80714285714286</v>
+        <v>-25.36476190476192</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-24.80714285714287</v>
+        <v>-25.36476190476192</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1679,13 +1675,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-24.75190476190477</v>
+        <v>-25.4609523809524</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-24.75190476190477</v>
+        <v>-25.4609523809524</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1696,13 +1692,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-24.70380952380953</v>
+        <v>-25.56333333333335</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-24.70380952380953</v>
+        <v>-25.56333333333335</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1713,13 +1709,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-24.66428571428572</v>
+        <v>-25.66761904761906</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-24.66428571428572</v>
+        <v>-25.66761904761906</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1730,13 +1726,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-24.63333333333333</v>
+        <v>-25.77857142857145</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-24.63333333333333</v>
+        <v>-25.77857142857145</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1747,13 +1743,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-24.60857142857143</v>
+        <v>-25.89285714285716</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-24.60857142857143</v>
+        <v>-25.89285714285716</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1764,13 +1760,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-24.58952380952381</v>
+        <v>-26.00857142857144</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-24.58952380952381</v>
+        <v>-26.00857142857144</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1781,13 +1777,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-24.58285714285715</v>
+        <v>-26.12761904761906</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-24.58285714285715</v>
+        <v>-26.12761904761906</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1798,13 +1794,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-24.58000000000001</v>
+        <v>-26.25333333333335</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-24.58000000000001</v>
+        <v>-26.25333333333335</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1815,13 +1811,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-24.58380952380953</v>
+        <v>-26.38190476190478</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-24.58380952380953</v>
+        <v>-26.38190476190478</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1832,13 +1828,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-24.59476190476191</v>
+        <v>-26.51428571428573</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-24.59476190476191</v>
+        <v>-26.51428571428573</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1849,13 +1845,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-24.61285714285714</v>
+        <v>-26.65285714285716</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-24.61285714285714</v>
+        <v>-26.65285714285716</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1866,13 +1862,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-24.63666666666667</v>
+        <v>-26.79285714285716</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-24.63666666666667</v>
+        <v>-26.79285714285716</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1883,13 +1879,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-24.66761904761905</v>
+        <v>-26.93523809523811</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-24.66761904761905</v>
+        <v>-26.93523809523811</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1900,13 +1896,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-24.70142857142857</v>
+        <v>-27.08142857142859</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-24.70142857142857</v>
+        <v>-27.08142857142859</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1917,13 +1913,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-24.74285714285715</v>
+        <v>-27.2309523809524</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-24.74285714285715</v>
+        <v>-27.2309523809524</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1934,13 +1930,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-24.79095238095238</v>
+        <v>-27.38142857142859</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-24.79095238095238</v>
+        <v>-27.38142857142859</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1951,13 +1947,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-24.84333333333333</v>
+        <v>-27.53619047619049</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-24.84333333333333</v>
+        <v>-27.53619047619049</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1968,13 +1964,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-24.90238095238096</v>
+        <v>-27.69333333333335</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-24.90238095238096</v>
+        <v>-27.69333333333335</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1985,13 +1981,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-24.96571428571429</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-24.96571428571429</v>
+        <v>-27.84904761904764</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -2002,13 +1998,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-25.03476190476191</v>
+        <v>-28.00523809523812</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-25.03476190476191</v>
+        <v>-28.00523809523812</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2019,13 +2015,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-25.10952380952381</v>
+        <v>-28.16714285714288</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-25.10952380952381</v>
+        <v>-28.16714285714288</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2036,13 +2032,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-25.19047619047619</v>
+        <v>-28.33047619047621</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-25.19047619047619</v>
+        <v>-28.33047619047621</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2053,13 +2049,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-25.27428571428572</v>
+        <v>-28.49523809523811</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-25.27428571428572</v>
+        <v>-28.49523809523811</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2070,13 +2066,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-25.36476190476191</v>
+        <v>-28.65952380952383</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-25.36476190476191</v>
+        <v>-28.65952380952383</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2087,13 +2083,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-25.46095238095238</v>
+        <v>-28.82142857142859</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-25.46095238095238</v>
+        <v>-28.82142857142859</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2104,13 +2100,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-25.56333333333333</v>
+        <v>-28.98333333333335</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-25.56333333333333</v>
+        <v>-28.98333333333335</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2121,13 +2117,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-25.66761904761905</v>
+        <v>-29.14666666666669</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-25.66761904761905</v>
+        <v>-29.14666666666669</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2138,13 +2134,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-25.77857142857143</v>
+        <v>-29.30952380952383</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-25.77857142857143</v>
+        <v>-29.30952380952383</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2155,13 +2151,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-25.89285714285715</v>
+        <v>-29.47071428571432</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-25.89285714285715</v>
+        <v>-29.47071428571432</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2172,13 +2168,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-26.00857142857143</v>
+        <v>-29.63071428571432</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-26.00857142857143</v>
+        <v>-29.63071428571432</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2189,13 +2185,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-26.12761904761905</v>
+        <v>-29.78952380952386</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-26.12761904761905</v>
+        <v>-29.78952380952386</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2203,414 +2199,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-26.25333333333334</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-26.25333333333334</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-26.38190476190476</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-26.38190476190476</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-26.51428571428572</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-26.51428571428572</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-26.65285714285715</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-26.65285714285715</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-26.79285714285714</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-26.79285714285714</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-26.9352380952381</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-26.9352380952381</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-27.08142857142857</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-27.08142857142857</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-27.23095238095238</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-27.23095238095238</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-27.38142857142858</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-27.38142857142858</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-27.53619047619048</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-27.53619047619048</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-27.69333333333334</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-27.69333333333334</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-27.84904761904762</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-27.84904761904762</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-28.0052380952381</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-28.0052380952381</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-28.16714285714286</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-28.16714285714286</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-28.33047619047619</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-28.33047619047619</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-28.4952380952381</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-28.4952380952381</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-28.65952380952381</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-28.65952380952381</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-28.82142857142857</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-28.82142857142857</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-28.98333333333333</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-28.98333333333333</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-29.14666666666667</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-29.14666666666667</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-29.30952380952381</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-29.30952380952381</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-29.47071428571431</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-29.47071428571431</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-29.63071428571433</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-29.63071428571433</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-29.78952380952388</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-29.78952380952388</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2623,7 +2211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,26 +2237,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.116</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5640821256038713</v>
+        <v>-0.05726480836235481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.208</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-1.11876466528641</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.188</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.7881746031745962</v>
+        <v>-0.2970731707317</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,92 +477,100 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-28.67023809523814</v>
+        <v>-29.01404761904763</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-28.67023809523813</v>
+        <v>-29.01404761904763</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.05726480836235481</v>
+        <v>-0.5640821256038606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-28.60952380952384</v>
+        <v>-29.36904761904763</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-28.58312427409992</v>
+        <v>-28.95307798481713</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.02639953542391993</v>
+        <v>-0.4159696342304997</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.104</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.2970731707317</v>
+        <v>-1.118764665286413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-28.53952380952383</v>
+        <v>-29.45619047619048</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-28.49601045296171</v>
+        <v>-28.89210835058662</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.04351335656212285</v>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+        <v>-0.5640821256038606</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-0.7881746031746069</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-28.46190476190478</v>
+        <v>-29.37380952380954</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-28.4088966318235</v>
+        <v>-28.83113871635612</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.05300813008128102</v>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
+        <v>-0.5426708074534226</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-0.006623376623331012</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-28.37904761904764</v>
+        <v>-29.23571428571431</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-28.32178281068528</v>
+        <v>-28.77016908212562</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.05726480836235481</v>
+        <v>-0.4655452035886896</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +578,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-28.29000000000002</v>
+        <v>-29.14523809523811</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-28.23466898954707</v>
+        <v>-28.70919944789511</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.05533101045294231</v>
+        <v>-0.4360386473430005</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +595,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-28.19857142857144</v>
+        <v>-29.06714285714288</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-28.14755516840886</v>
+        <v>-28.64822981366461</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.05101626016258365</v>
+        <v>-0.4189130434782697</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +612,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-28.10285714285716</v>
+        <v>-29.00190476190478</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-28.06044134727065</v>
+        <v>-28.5872601794341</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.04241579558651409</v>
+        <v>-0.4146445824706788</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +629,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-28.00714285714288</v>
+        <v>-28.94809523809526</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-27.97332752613244</v>
+        <v>-28.5262905452036</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03381533101044099</v>
+        <v>-0.421804692891655</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +646,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-27.91238095238097</v>
+        <v>-28.90285714285716</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-27.88621370499423</v>
+        <v>-28.4653209109731</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02616724738674492</v>
+        <v>-0.4375362318840637</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +663,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-27.81952380952383</v>
+        <v>-28.86666666666669</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-27.79909988385601</v>
+        <v>-28.40435127674259</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02042392566781714</v>
+        <v>-0.4623153899240968</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +680,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-27.72761904761906</v>
+        <v>-28.84000000000002</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-27.7119860627178</v>
+        <v>-28.34338164251209</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.01563298490126286</v>
+        <v>-0.4966183574879288</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-27.64333333333335</v>
+        <v>-28.82619047619049</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-27.62487224157959</v>
+        <v>-28.28241200828159</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.01846109175376398</v>
+        <v>-0.5437784679089042</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +714,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-27.56095238095239</v>
+        <v>-28.81666666666668</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-27.53775842044138</v>
+        <v>-28.22144237405108</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.02319396051101563</v>
+        <v>-0.5952242926155975</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-27.48476190476192</v>
+        <v>-28.81523809523811</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-27.45064459930316</v>
+        <v>-28.16047273982058</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03411730545875713</v>
+        <v>-0.6547653554175348</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +748,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-27.41523809523812</v>
+        <v>-28.81666666666668</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-27.36353077816495</v>
+        <v>-28.09950310559007</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.05170731707316278</v>
+        <v>-0.7171635610766103</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +765,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-27.35000000000002</v>
+        <v>-28.81809523809525</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-27.27641695702674</v>
+        <v>-28.03853347135957</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.07358304297327933</v>
+        <v>-0.7795617667356822</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +782,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-27.28809523809526</v>
+        <v>-28.81904761904763</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-27.18930313588853</v>
+        <v>-27.97756383712907</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.09879210220672618</v>
+        <v>-0.8414837819185657</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +799,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-27.22904761904763</v>
+        <v>-28.81904761904763</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-27.10218931475032</v>
+        <v>-27.91659420289856</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1268583042973148</v>
+        <v>-0.902453416149072</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +816,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-27.17047619047621</v>
+        <v>-28.81190476190478</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-27.01507549361211</v>
+        <v>-27.85562456866806</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1554006968641026</v>
+        <v>-0.9562801932367186</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-27.11428571428573</v>
+        <v>-28.79952380952383</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-26.9279616724739</v>
+        <v>-27.79465493443756</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.186324041811833</v>
+        <v>-1.00486887508627</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +850,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-27.05714285714287</v>
+        <v>-28.77809523809525</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-26.84084785133568</v>
+        <v>-27.73368530020705</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2162950058071935</v>
+        <v>-1.044409937888201</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +867,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-26.99761904761906</v>
+        <v>-28.75047619047621</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-26.75373403019747</v>
+        <v>-27.67271566597655</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2438850174215901</v>
+        <v>-1.077760524499659</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +884,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-26.93190476190478</v>
+        <v>-28.71333333333335</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-26.66662020905926</v>
+        <v>-27.61174603174604</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2652845528455217</v>
+        <v>-1.101587301587308</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +901,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-26.85809523809526</v>
+        <v>-28.66666666666669</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-26.57950638792105</v>
+        <v>-27.55077639751554</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.2785888501742093</v>
+        <v>-1.115890269151144</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +918,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-26.78238095238097</v>
+        <v>-28.60857142857145</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-26.49239256678283</v>
+        <v>-27.48980676328504</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.2899883855981358</v>
+        <v>-1.118764665286413</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +935,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-26.70190476190478</v>
+        <v>-28.54047619047621</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-26.40527874564462</v>
+        <v>-27.42883712905453</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2966260162601557</v>
+        <v>-1.111639061421673</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +952,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-26.61523809523811</v>
+        <v>-28.46190476190478</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-26.31816492450641</v>
+        <v>-27.36786749482403</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.2970731707317</v>
+        <v>-1.094037267080751</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-26.52142857142859</v>
+        <v>-28.37904761904764</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-26.2310511033682</v>
+        <v>-27.30689786059353</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2903774680603917</v>
+        <v>-1.072149758454113</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +986,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-26.41904761904764</v>
+        <v>-28.29000000000002</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-26.14393728222998</v>
+        <v>-27.24592822636302</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2751103368176508</v>
+        <v>-1.044071773636993</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +1003,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-26.31142857142859</v>
+        <v>-28.19857142857145</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-26.05682346109177</v>
+        <v>-27.18495859213252</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.254605110336815</v>
+        <v>-1.013612836438931</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1020,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-26.20142857142859</v>
+        <v>-28.10285714285716</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-25.96970963995356</v>
+        <v>-27.12398895790201</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.2317189314750223</v>
+        <v>-0.9788681849551466</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1037,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-26.08714285714287</v>
+        <v>-28.00714285714287</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-25.88259581881535</v>
+        <v>-27.06301932367151</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2045470383275223</v>
+        <v>-0.9441235334713625</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1054,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-25.96952380952382</v>
+        <v>-27.91238095238097</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-25.79548199767714</v>
+        <v>-27.00204968944101</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.1740418118466849</v>
+        <v>-0.9103312629399625</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-25.85047619047621</v>
+        <v>-27.81952380952383</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-25.70836817653893</v>
+        <v>-26.9410800552105</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1421080139372819</v>
+        <v>-0.8784437543133272</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1088,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-25.73380952380954</v>
+        <v>-27.72761904761906</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-25.62125435540072</v>
+        <v>-26.88011042098</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1125551684088251</v>
+        <v>-0.8475086266390655</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1105,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-25.61809523809525</v>
+        <v>-27.64333333333335</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-25.53414053426251</v>
+        <v>-26.8191407867495</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.08395470383274883</v>
+        <v>-0.8241925465838555</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1122,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-25.50523809523811</v>
+        <v>-27.5609523809524</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-25.44702671312429</v>
+        <v>-26.75817115251899</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.05821138211382149</v>
+        <v>-0.8027812284334033</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1139,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-25.39523809523811</v>
+        <v>-27.48476190476192</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-25.35991289198608</v>
+        <v>-26.69720151828849</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.03532520325203592</v>
+        <v>-0.7875603864734337</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1156,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-25.28952380952383</v>
+        <v>-27.41523809523812</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-25.27279907084787</v>
+        <v>-26.63623188405798</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.01672473867596125</v>
+        <v>-0.7790062111801319</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-25.18904761904763</v>
+        <v>-27.35000000000002</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-25.18568524970966</v>
+        <v>-26.57526224982748</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.003362369337978066</v>
+        <v>-0.7747377501725374</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1190,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-25.09857142857145</v>
+        <v>-27.28809523809526</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-25.09857142857144</v>
+        <v>-26.51429261559698</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-3.552713678800501e-15</v>
+        <v>-0.7738026224982768</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-25.01380952380954</v>
+        <v>-27.22904761904763</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-25.01380952380954</v>
+        <v>-26.45332298136648</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>-0.775724637681158</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1224,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-24.93857142857144</v>
+        <v>-27.17047619047621</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-24.93857142857144</v>
+        <v>-26.39235334713597</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>-0.7781228433402383</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-24.87000000000002</v>
+        <v>-27.11428571428574</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-24.87000000000002</v>
+        <v>-26.33138371290547</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>-0.7829020013802683</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1258,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-24.80714285714287</v>
+        <v>-27.05714285714287</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-24.80714285714287</v>
+        <v>-26.27041407867496</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>-0.7867287784679107</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1275,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-24.75190476190478</v>
+        <v>-26.99761904761906</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-24.75190476190478</v>
+        <v>-26.20944444444446</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0</v>
+        <v>-0.7881746031746069</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-24.70380952380954</v>
+        <v>-26.93190476190478</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-24.70380952380954</v>
+        <v>-26.14847481021395</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>-0.7834299516908274</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1309,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-24.66428571428573</v>
+        <v>-26.85809523809526</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-24.66428571428573</v>
+        <v>-26.08750517598345</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>-0.7705900621118076</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1326,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-24.63333333333335</v>
+        <v>-26.78238095238098</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-24.63333333333335</v>
+        <v>-26.02653554175295</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>-0.7558454106280266</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1343,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-24.60857142857144</v>
+        <v>-26.70190476190478</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-24.60857142857144</v>
+        <v>-25.96556590752245</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>-0.7363388543823355</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1360,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-24.58952380952383</v>
+        <v>-26.61523809523811</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-24.58952380952383</v>
+        <v>-25.90459627329194</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>-0.7106418219461723</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1377,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-24.58285714285716</v>
+        <v>-26.52142857142859</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-24.58285714285716</v>
+        <v>-25.84362663906144</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0</v>
+        <v>-0.6778019323671565</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1394,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-24.58000000000001</v>
+        <v>-26.41904761904764</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-24.58000000000001</v>
+        <v>-25.78265700483093</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0</v>
+        <v>-0.6363906142167046</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1411,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-24.58380952380954</v>
+        <v>-26.31142857142859</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-24.58380952380954</v>
+        <v>-25.72168737060043</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>-0.5897412008281613</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-24.59476190476192</v>
+        <v>-26.20142857142859</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-24.59476190476192</v>
+        <v>-25.66071773636993</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>-0.5407108350586647</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1445,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-24.61285714285716</v>
+        <v>-26.08714285714287</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-24.61285714285716</v>
+        <v>-25.59974810213942</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>-0.4873947550034501</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1462,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-24.63666666666668</v>
+        <v>-25.96952380952383</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-24.63666666666668</v>
+        <v>-25.53877846790892</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>-0.4307453416149087</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1479,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-24.66761904761906</v>
+        <v>-25.85047619047621</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-24.66761904761906</v>
+        <v>-25.47780883367842</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>-0.3726673567977912</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1496,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-24.70142857142859</v>
+        <v>-25.73380952380954</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-24.70142857142859</v>
+        <v>-25.41683919944791</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>-0.3169703243616304</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,16 +1513,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-24.74285714285716</v>
+        <v>-25.61809523809526</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-24.74285714285716</v>
+        <v>-25.35586956521741</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0</v>
+        <v>-0.2622256728778503</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1522,16 +1530,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-24.7909523809524</v>
+        <v>-25.50523809523811</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-24.7909523809524</v>
+        <v>-25.2948999309869</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>-0.2103381642512083</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1539,16 +1547,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-24.84333333333335</v>
+        <v>-25.39523809523811</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-24.84333333333335</v>
+        <v>-25.2339302967564</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>-0.1613077984817082</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1556,16 +1564,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-24.90238095238097</v>
+        <v>-25.28952380952383</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-24.90238095238097</v>
+        <v>-25.1729606625259</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>-0.1165631469979331</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1573,16 +1581,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-24.9657142857143</v>
+        <v>-25.18904761904763</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-24.9657142857143</v>
+        <v>-25.11199102829539</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0</v>
+        <v>-0.07705659075224247</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1590,16 +1598,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-25.03476190476192</v>
+        <v>-25.09857142857145</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-25.03476190476192</v>
+        <v>-25.05102139406489</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0</v>
+        <v>-0.04755003450655693</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1607,16 +1615,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-25.10952380952383</v>
+        <v>-25.01380952380954</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-25.10952380952383</v>
+        <v>-24.99005175983439</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-0.02375776397515494</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1624,16 +1632,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-25.1904761904762</v>
+        <v>-24.93857142857144</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-25.1904761904762</v>
+        <v>-24.92908212560388</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-0.009489302967562452</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1641,16 +1649,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-25.27428571428573</v>
+        <v>-24.87000000000002</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-25.27428571428573</v>
+        <v>-24.86811249137338</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-0.001887508626641221</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1658,13 +1666,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-25.36476190476192</v>
+        <v>-24.80714285714287</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-25.36476190476192</v>
+        <v>-24.80714285714287</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1675,13 +1683,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-25.4609523809524</v>
+        <v>-24.75190476190478</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-25.4609523809524</v>
+        <v>-24.75190476190478</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1692,13 +1700,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-25.56333333333335</v>
+        <v>-24.70380952380954</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-25.56333333333335</v>
+        <v>-24.70380952380954</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1709,13 +1717,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-25.66761904761906</v>
+        <v>-24.66428571428573</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-25.66761904761906</v>
+        <v>-24.66428571428573</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1726,13 +1734,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-25.77857142857145</v>
+        <v>-24.63333333333335</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-25.77857142857145</v>
+        <v>-24.63333333333335</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1743,13 +1751,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-25.89285714285716</v>
+        <v>-24.60857142857144</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-25.89285714285716</v>
+        <v>-24.60857142857144</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1760,13 +1768,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-26.00857142857144</v>
+        <v>-24.58952380952383</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-26.00857142857144</v>
+        <v>-24.58952380952383</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1777,13 +1785,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-26.12761904761906</v>
+        <v>-24.58285714285716</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-26.12761904761906</v>
+        <v>-24.58285714285716</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1794,13 +1802,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-26.25333333333335</v>
+        <v>-24.58000000000002</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-26.25333333333335</v>
+        <v>-24.58000000000002</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1811,13 +1819,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-26.38190476190478</v>
+        <v>-24.58380952380954</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-26.38190476190478</v>
+        <v>-24.58380952380954</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1828,13 +1836,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-26.51428571428573</v>
+        <v>-24.59476190476192</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-26.51428571428573</v>
+        <v>-24.59476190476192</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1845,13 +1853,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-26.65285714285716</v>
+        <v>-24.61285714285716</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-26.65285714285716</v>
+        <v>-24.61285714285716</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0</v>
@@ -1862,13 +1870,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-26.79285714285716</v>
+        <v>-24.63666666666668</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-26.79285714285716</v>
+        <v>-24.63666666666668</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>0</v>
@@ -1879,13 +1887,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-26.93523809523811</v>
+        <v>-24.66761904761906</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-26.93523809523811</v>
+        <v>-24.66761904761906</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1896,13 +1904,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-27.08142857142859</v>
+        <v>-24.70142857142859</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-27.08142857142859</v>
+        <v>-24.70142857142859</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1913,13 +1921,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-24.74285714285716</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-27.2309523809524</v>
+        <v>-24.74285714285716</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1930,13 +1938,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-27.38142857142859</v>
+        <v>-24.7909523809524</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-27.38142857142859</v>
+        <v>-24.7909523809524</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1947,13 +1955,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-27.53619047619049</v>
+        <v>-24.84333333333335</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-27.53619047619049</v>
+        <v>-24.84333333333335</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1964,13 +1972,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-27.69333333333335</v>
+        <v>-24.90238095238097</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-27.69333333333335</v>
+        <v>-24.90238095238097</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1981,13 +1989,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-24.9657142857143</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-27.84904761904764</v>
+        <v>-24.9657142857143</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1998,13 +2006,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-28.00523809523812</v>
+        <v>-25.03476190476192</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-28.00523809523812</v>
+        <v>-25.03476190476192</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2015,13 +2023,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-28.16714285714288</v>
+        <v>-25.10952380952383</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-28.16714285714288</v>
+        <v>-25.10952380952383</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2032,13 +2040,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-28.33047619047621</v>
+        <v>-25.1904761904762</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-28.33047619047621</v>
+        <v>-25.1904761904762</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2049,13 +2057,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-28.49523809523811</v>
+        <v>-25.27428571428573</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-28.49523809523811</v>
+        <v>-25.27428571428573</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2066,13 +2074,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-28.65952380952383</v>
+        <v>-25.36476190476192</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-28.65952380952383</v>
+        <v>-25.36476190476192</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2083,13 +2091,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-28.82142857142859</v>
+        <v>-25.4609523809524</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-28.82142857142859</v>
+        <v>-25.4609523809524</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2100,13 +2108,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-28.98333333333335</v>
+        <v>-25.56333333333335</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-28.98333333333335</v>
+        <v>-25.56333333333335</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2117,13 +2125,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-29.14666666666669</v>
+        <v>-25.66761904761906</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-29.14666666666669</v>
+        <v>-25.66761904761906</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2134,13 +2142,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-29.30952380952383</v>
+        <v>-25.77857142857145</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-29.30952380952383</v>
+        <v>-25.77857142857145</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2151,13 +2159,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-29.47071428571432</v>
+        <v>-25.89285714285716</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-29.47071428571432</v>
+        <v>-25.89285714285716</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2168,13 +2176,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-29.63071428571432</v>
+        <v>-26.00857142857144</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-29.63071428571432</v>
+        <v>-26.00857142857144</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2185,13 +2193,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-29.78952380952386</v>
+        <v>-26.12761904761907</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-29.78952380952386</v>
+        <v>-26.12761904761907</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2199,6 +2207,414 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-26.25333333333335</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-26.25333333333335</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-26.38190476190478</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-26.38190476190478</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-26.51428571428573</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-26.51428571428573</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-26.65285714285717</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-26.65285714285717</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-26.79285714285716</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-26.79285714285716</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-26.93523809523811</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-26.93523809523811</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-27.08142857142859</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-27.08142857142859</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-27.2309523809524</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-27.2309523809524</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-27.38142857142859</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-27.38142857142859</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-27.53619047619049</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-27.53619047619049</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-27.69333333333335</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-27.69333333333335</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-27.84904761904764</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-27.84904761904764</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-28.00523809523811</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-28.00523809523811</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-28.16714285714288</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-28.16744588744591</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.0003030303030335801</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-28.33047619047621</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-28.32965367965371</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>-0.0008225108224984012</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-28.49523809523811</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-28.49186147186151</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>-0.00337662337660305</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-28.65952380952383</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-28.6540692640693</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>-0.00545454545452273</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-28.82142857142859</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-28.8162770562771</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>-0.00515151515148915</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-28.98333333333335</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-28.9784848484849</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.004848484848452017</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-29.14666666666669</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-29.1406926406927</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.005974025973991104</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-29.30952380952383</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-29.3029004329005</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>-0.006623376623331012</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-29.47071428571433</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-29.4651082251083</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>-0.005606060606034191</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-29.63071428571434</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-29.62731601731609</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>-0.003398268398246529</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-29.78952380952389</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-29.78952380952389</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2211,7 +2627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2237,18 +2653,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.05726480836235481</v>
+        <v>-0.5640821256038606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2970731707317</v>
+        <v>-1.118764665286413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.7881746031746069</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.006623376623331012</v>
       </c>
     </row>
   </sheetData>
